--- a/regionseng/5/standard of living/expenditures.xlsx
+++ b/regionseng/5/standard of living/expenditures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -320,7 +320,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -400,25 +400,6 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -443,6 +424,29 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="6" builtinId="3"/>
@@ -755,35 +759,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.140625" style="39"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
+      <c r="A1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="8">
         <v>2011</v>
@@ -818,8 +826,14 @@
       <c r="L2" s="9">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
+      <c r="M2" s="9">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="38">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
@@ -853,11 +867,17 @@
       <c r="K3" s="14">
         <v>37.584911314852555</v>
       </c>
-      <c r="L3" s="30">
+      <c r="L3" s="14">
         <v>41.155421010721703</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
+      <c r="M3" s="24">
+        <v>49.384147971962243</v>
+      </c>
+      <c r="N3" s="28">
+        <v>49.985092946685036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
@@ -891,11 +911,17 @@
       <c r="K4" s="15">
         <v>30.938060670622693</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="15">
         <v>34.790404480716518</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="M4" s="25">
+        <v>42.770240225277767</v>
+      </c>
+      <c r="N4" s="29">
+        <v>43.519822612587504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
@@ -929,11 +955,17 @@
       <c r="K5" s="16">
         <v>12.545865123812842</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="16">
         <v>14.313351620947422</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="M5" s="26">
+        <v>16.027655986190972</v>
+      </c>
+      <c r="N5" s="30">
+        <v>14.675339270075009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
@@ -967,11 +999,17 @@
       <c r="K6" s="16">
         <v>1.532171235537529</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="16">
         <v>1.4644443511126837</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="M6" s="26">
+        <v>2.1436465206508641</v>
+      </c>
+      <c r="N6" s="30">
+        <v>2.8193276643486027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
@@ -1005,11 +1043,17 @@
       <c r="K7" s="16">
         <v>1.1933947238389413</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="16">
         <v>1.6329274507608027</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+      <c r="M7" s="26">
+        <v>1.6535292027687012</v>
+      </c>
+      <c r="N7" s="30">
+        <v>2.740691709166597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
@@ -1043,11 +1087,17 @@
       <c r="K8" s="16">
         <v>3.6331097587069574</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="16">
         <v>4.1167798077491131</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+      <c r="M8" s="26">
+        <v>5.4053726912342723</v>
+      </c>
+      <c r="N8" s="30">
+        <v>6.2438965805365241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
@@ -1081,11 +1131,17 @@
       <c r="K9" s="16">
         <v>4.6903914484232336</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="16">
         <v>4.2693028681914571</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="M9" s="26">
+        <v>5.4499104411321238</v>
+      </c>
+      <c r="N9" s="30">
+        <v>5.7515845987852066</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>4</v>
       </c>
@@ -1119,11 +1175,17 @@
       <c r="K10" s="16">
         <v>3.6086313117339217</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="16">
         <v>4.7429989405451147</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+      <c r="M10" s="26">
+        <v>6.4797130281859081</v>
+      </c>
+      <c r="N10" s="30">
+        <v>5.5849269053207653</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>5</v>
       </c>
@@ -1157,11 +1219,17 @@
       <c r="K11" s="16">
         <v>0.20600894735654196</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="16">
         <v>0.35894965209452312</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+      <c r="M11" s="26">
+        <v>0.58218725679715466</v>
+      </c>
+      <c r="N11" s="30">
+        <v>0.29225881794611613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
@@ -1195,11 +1263,17 @@
       <c r="K12" s="16">
         <v>3.5284881212127241</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="16">
         <v>3.8916497893153941</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+      <c r="M12" s="26">
+        <v>5.0282250983177743</v>
+      </c>
+      <c r="N12" s="30">
+        <v>5.4117970664086785</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
@@ -1233,11 +1307,17 @@
       <c r="K13" s="15">
         <v>6.6468506442298665</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="15">
         <v>6.365016530005188</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
+      <c r="M13" s="25">
+        <v>6.6139077466844727</v>
+      </c>
+      <c r="N13" s="29">
+        <v>6.4652703340975402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
@@ -1271,11 +1351,17 @@
       <c r="K14" s="15">
         <v>18.490708581252772</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="15">
         <v>20.034930031624661</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
+      <c r="M14" s="25">
+        <v>31.170179695798229</v>
+      </c>
+      <c r="N14" s="29">
+        <v>31.59359600358836</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>7</v>
       </c>
@@ -1309,11 +1395,17 @@
       <c r="K15" s="16">
         <v>3.3359790019611086</v>
       </c>
-      <c r="L15" s="32">
+      <c r="L15" s="16">
         <v>2.7944768668424604</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
+      <c r="M15" s="26">
+        <v>3.9053527296091715</v>
+      </c>
+      <c r="N15" s="30">
+        <v>4.3855598939997353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>8</v>
       </c>
@@ -1347,11 +1439,17 @@
       <c r="K16" s="16">
         <v>2.7351058634586334</v>
       </c>
-      <c r="L16" s="32">
+      <c r="L16" s="16">
         <v>2.114236829292933</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
+      <c r="M16" s="26">
+        <v>5.4705558712107347</v>
+      </c>
+      <c r="N16" s="30">
+        <v>5.0339711966400138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>9</v>
       </c>
@@ -1385,11 +1483,17 @@
       <c r="K17" s="16">
         <v>10.496483106678644</v>
       </c>
-      <c r="L17" s="32">
+      <c r="L17" s="16">
         <v>13.027837648686729</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
+      <c r="M17" s="26">
+        <v>19.506393178869882</v>
+      </c>
+      <c r="N17" s="30">
+        <v>19.294083447062818</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>10</v>
       </c>
@@ -1423,11 +1527,17 @@
       <c r="K18" s="16">
         <v>1.923140609154383</v>
       </c>
-      <c r="L18" s="32">
+      <c r="L18" s="16">
         <v>2.0983786868025467</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
+      <c r="M18" s="26">
+        <v>2.2878779161084495</v>
+      </c>
+      <c r="N18" s="30">
+        <v>2.8799814658857983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1">
       <c r="A19" s="10" t="s">
         <v>15</v>
       </c>
@@ -1461,11 +1571,17 @@
       <c r="K19" s="15">
         <v>49.428769251875451</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="15">
         <v>54.825334512341186</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1">
+      <c r="M19" s="25">
+        <v>73.940419921076014</v>
+      </c>
+      <c r="N19" s="29">
+        <v>75.113418616175878</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="13" t="s">
         <v>16</v>
       </c>
@@ -1499,11 +1615,17 @@
       <c r="K20" s="17">
         <v>56.075619896105316</v>
       </c>
-      <c r="L20" s="33">
+      <c r="L20" s="17">
         <v>61.190351042346364</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="15">
+      <c r="M20" s="27">
+        <v>80.554327667760475</v>
+      </c>
+      <c r="N20" s="31">
+        <v>81.578688950273389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1514,7 +1636,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="15">
+    <row r="22" spans="1:14" ht="15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1525,23 +1647,25 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1">
-      <c r="A23" s="26" t="s">
+    <row r="23" spans="1:14" ht="30" customHeight="1">
+      <c r="A23" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="8">
         <v>2011</v>
@@ -1576,8 +1700,14 @@
       <c r="L24" s="9">
         <v>2021</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1">
+      <c r="M24" s="9">
+        <v>2022</v>
+      </c>
+      <c r="N24" s="38">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="10" t="s">
         <v>11</v>
       </c>
@@ -1611,11 +1741,17 @@
       <c r="K25" s="14">
         <v>970.58340162717684</v>
       </c>
-      <c r="L25" s="30">
+      <c r="L25" s="14">
         <v>1031.9005921955261</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
+      <c r="M25" s="24">
+        <v>1229.4450141434636</v>
+      </c>
+      <c r="N25" s="28">
+        <v>1221.6224615575895</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
       <c r="A26" s="10" t="s">
         <v>12</v>
       </c>
@@ -1649,11 +1785,17 @@
       <c r="K26" s="15">
         <v>798.93678380384245</v>
       </c>
-      <c r="L26" s="31">
+      <c r="L26" s="15">
         <v>872.3088746199586</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
+      <c r="M26" s="25">
+        <v>1064.7882115641689</v>
+      </c>
+      <c r="N26" s="29">
+        <v>1063.612963233764</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>0</v>
       </c>
@@ -1687,11 +1829,17 @@
       <c r="K27" s="16">
         <v>323.98130053360211</v>
       </c>
-      <c r="L27" s="32">
+      <c r="L27" s="16">
         <v>358.88239389193961</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
+      <c r="M27" s="26">
+        <v>399.01714517412904</v>
+      </c>
+      <c r="N27" s="30">
+        <v>358.66141336225598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>1</v>
       </c>
@@ -1725,11 +1873,17 @@
       <c r="K28" s="16">
         <v>39.566408902917026</v>
       </c>
-      <c r="L28" s="32">
+      <c r="L28" s="16">
         <v>36.718394710550704</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
+      <c r="M28" s="26">
+        <v>53.367236960258701</v>
+      </c>
+      <c r="N28" s="30">
+        <v>68.903623024819481</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1">
       <c r="A29" s="11" t="s">
         <v>2</v>
       </c>
@@ -1763,11 +1917,17 @@
       <c r="K29" s="16">
         <v>30.817928525743241</v>
       </c>
-      <c r="L29" s="32">
+      <c r="L29" s="16">
         <v>40.942815358720935</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
+      <c r="M29" s="26">
+        <v>41.165501837528602</v>
+      </c>
+      <c r="N29" s="30">
+        <v>66.981781062079989</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="A30" s="11" t="s">
         <v>3</v>
       </c>
@@ -1801,11 +1961,17 @@
       <c r="K30" s="16">
         <v>93.820522777107499</v>
       </c>
-      <c r="L30" s="32">
+      <c r="L30" s="16">
         <v>103.22109256149237</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
+      <c r="M30" s="26">
+        <v>134.56967018238817</v>
+      </c>
+      <c r="N30" s="30">
+        <v>152.59918229144563</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1">
       <c r="A31" s="12" t="s">
         <v>17</v>
       </c>
@@ -1839,11 +2005,17 @@
       <c r="K31" s="16">
         <v>121.12350216387631</v>
       </c>
-      <c r="L31" s="32">
+      <c r="L31" s="16">
         <v>107.04534298898592</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
+      <c r="M31" s="26">
+        <v>135.67846150109571</v>
+      </c>
+      <c r="N31" s="30">
+        <v>140.5672075656444</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
       <c r="A32" s="11" t="s">
         <v>4</v>
       </c>
@@ -1877,11 +2049,17 @@
       <c r="K32" s="16">
         <v>93.188397450786709</v>
       </c>
-      <c r="L32" s="32">
+      <c r="L32" s="16">
         <v>118.92244801131314</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
+      <c r="M32" s="26">
+        <v>161.31595264347877</v>
+      </c>
+      <c r="N32" s="30">
+        <v>136.49413758166546</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1">
       <c r="A33" s="11" t="s">
         <v>5</v>
       </c>
@@ -1915,11 +2093,17 @@
       <c r="K33" s="16">
         <v>5.3199238177244821</v>
       </c>
-      <c r="L33" s="32">
+      <c r="L33" s="16">
         <v>9.000038135151641</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
+      <c r="M33" s="26">
+        <v>14.493865937982724</v>
+      </c>
+      <c r="N33" s="30">
+        <v>7.1427282724483492</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1">
       <c r="A34" s="11" t="s">
         <v>6</v>
       </c>
@@ -1953,11 +2137,17 @@
       <c r="K34" s="16">
         <v>91.118799632084929</v>
       </c>
-      <c r="L34" s="32">
+      <c r="L34" s="16">
         <v>97.576348961804172</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
+      <c r="M34" s="26">
+        <v>125.18037732730737</v>
+      </c>
+      <c r="N34" s="30">
+        <v>132.26289007340449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1">
       <c r="A35" s="10" t="s">
         <v>13</v>
       </c>
@@ -1991,11 +2181,17 @@
       <c r="K35" s="15">
         <v>171.64661782333445</v>
       </c>
-      <c r="L35" s="31">
+      <c r="L35" s="15">
         <v>159.59171757556726</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
+      <c r="M35" s="25">
+        <v>164.65680257929455</v>
+      </c>
+      <c r="N35" s="29">
+        <v>158.00949832382557</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1">
       <c r="A36" s="10" t="s">
         <v>14</v>
       </c>
@@ -2029,11 +2225,17 @@
       <c r="K36" s="15">
         <v>477.49945936940543</v>
       </c>
-      <c r="L36" s="31">
+      <c r="L36" s="15">
         <v>502.34101988273824</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1">
+      <c r="M36" s="25">
+        <v>775.99844465702256</v>
+      </c>
+      <c r="N36" s="29">
+        <v>772.13913677276139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15" customHeight="1">
       <c r="A37" s="11" t="s">
         <v>7</v>
       </c>
@@ -2067,11 +2269,17 @@
       <c r="K37" s="16">
         <v>86.147492017647423</v>
       </c>
-      <c r="L37" s="32">
+      <c r="L37" s="16">
         <v>70.066646457588149</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1">
+      <c r="M37" s="26">
+        <v>97.225863745094017</v>
+      </c>
+      <c r="N37" s="30">
+        <v>107.18192479366992</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15" customHeight="1">
       <c r="A38" s="11" t="s">
         <v>8</v>
       </c>
@@ -2105,11 +2313,17 @@
       <c r="K38" s="16">
         <v>70.630693538900829</v>
       </c>
-      <c r="L38" s="32">
+      <c r="L38" s="16">
         <v>53.010810790165465</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1">
+      <c r="M38" s="26">
+        <v>136.19244062430357</v>
+      </c>
+      <c r="N38" s="30">
+        <v>123.02892566807188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15" customHeight="1">
       <c r="A39" s="11" t="s">
         <v>9</v>
       </c>
@@ -2143,11 +2357,17 @@
       <c r="K39" s="16">
         <v>271.05856904806484</v>
       </c>
-      <c r="L39" s="32">
+      <c r="L39" s="16">
         <v>326.65036718260654</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1">
+      <c r="M39" s="26">
+        <v>485.62218490231726</v>
+      </c>
+      <c r="N39" s="30">
+        <v>471.54230040621655</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1">
       <c r="A40" s="11" t="s">
         <v>10</v>
       </c>
@@ -2181,11 +2401,17 @@
       <c r="K40" s="16">
         <v>49.662704764792238</v>
       </c>
-      <c r="L40" s="32">
+      <c r="L40" s="16">
         <v>52.613195452378307</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1">
+      <c r="M40" s="26">
+        <v>56.957955385307933</v>
+      </c>
+      <c r="N40" s="30">
+        <v>70.38598590480305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1">
       <c r="A41" s="10" t="s">
         <v>15</v>
       </c>
@@ -2219,11 +2445,17 @@
       <c r="K41" s="22">
         <v>1276.4362431732475</v>
       </c>
-      <c r="L41" s="31">
+      <c r="L41" s="22">
         <v>1374.6498945026972</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1">
+      <c r="M41" s="25">
+        <v>1840.7866562211918</v>
+      </c>
+      <c r="N41" s="29">
+        <v>1835.7521000065256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1">
       <c r="A42" s="13" t="s">
         <v>16</v>
       </c>
@@ -2257,11 +2489,17 @@
       <c r="K42" s="23">
         <v>1448.082860996582</v>
       </c>
-      <c r="L42" s="33">
+      <c r="L42" s="23">
         <v>1534.2416120782643</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="15">
+      <c r="M42" s="27">
+        <v>2005.4434588004863</v>
+      </c>
+      <c r="N42" s="31">
+        <v>1993.7615983303504</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2272,7 +2510,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:12" ht="15">
+    <row r="44" spans="1:14" ht="15">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2283,23 +2521,25 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1">
-      <c r="A45" s="26" t="s">
+    <row r="45" spans="1:14" ht="30" customHeight="1">
+      <c r="A45" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="8">
         <v>2011</v>
@@ -2334,8 +2574,14 @@
       <c r="L46" s="9">
         <v>2021</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
+      <c r="M46" s="9">
+        <v>2022</v>
+      </c>
+      <c r="N46" s="38">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1">
       <c r="A47" s="18" t="s">
         <v>11</v>
       </c>
@@ -2369,11 +2615,17 @@
       <c r="K47" s="14">
         <v>247.08383745201223</v>
       </c>
-      <c r="L47" s="34">
+      <c r="L47" s="14">
         <v>272.35405116131051</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
+      <c r="M47" s="28">
+        <v>332.92085663898791</v>
+      </c>
+      <c r="N47" s="28">
+        <v>345.41919443660737</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1">
       <c r="A48" s="18" t="s">
         <v>12</v>
       </c>
@@ -2407,11 +2659,17 @@
       <c r="K48" s="15">
         <v>203.38732981923542</v>
       </c>
-      <c r="L48" s="35">
+      <c r="L48" s="15">
         <v>230.2323088711756</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1">
+      <c r="M48" s="29">
+        <v>288.33351589945414</v>
+      </c>
+      <c r="N48" s="29">
+        <v>300.74130471054707</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1">
       <c r="A49" s="19" t="s">
         <v>0</v>
       </c>
@@ -2445,11 +2703,17 @@
       <c r="K49" s="16">
         <v>82.47672777458574</v>
       </c>
-      <c r="L49" s="36">
+      <c r="L49" s="16">
         <v>94.721404955273456</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
+      <c r="M49" s="30">
+        <v>108.04967140198858</v>
+      </c>
+      <c r="N49" s="30">
+        <v>101.41311278864789</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1">
       <c r="A50" s="19" t="s">
         <v>1</v>
       </c>
@@ -2483,11 +2747,17 @@
       <c r="K50" s="16">
         <v>10.072519403833232</v>
       </c>
-      <c r="L50" s="36">
+      <c r="L50" s="16">
         <v>9.6912470321207334</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
+      <c r="M50" s="30">
+        <v>14.451289842875358</v>
+      </c>
+      <c r="N50" s="30">
+        <v>19.482806438128684</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1">
       <c r="A51" s="19" t="s">
         <v>2</v>
       </c>
@@ -2521,11 +2791,17 @@
       <c r="K51" s="16">
         <v>7.8453969331194271</v>
       </c>
-      <c r="L51" s="36">
+      <c r="L51" s="16">
         <v>10.806216910072548</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
+      <c r="M51" s="30">
+        <v>11.147187534264658</v>
+      </c>
+      <c r="N51" s="30">
+        <v>18.939397059622713</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1">
       <c r="A52" s="19" t="s">
         <v>3</v>
       </c>
@@ -2559,11 +2835,17 @@
       <c r="K52" s="16">
         <v>23.884124497346594</v>
       </c>
-      <c r="L52" s="36">
+      <c r="L52" s="16">
         <v>27.243595882240012</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1">
+      <c r="M52" s="30">
+        <v>36.440059831353231</v>
+      </c>
+      <c r="N52" s="30">
+        <v>43.148098760061373</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15" customHeight="1">
       <c r="A53" s="20" t="s">
         <v>17</v>
       </c>
@@ -2597,11 +2879,17 @@
       <c r="K53" s="16">
         <v>30.834712060915258</v>
       </c>
-      <c r="L53" s="36">
+      <c r="L53" s="16">
         <v>28.252947077946935</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1">
+      <c r="M53" s="30">
+        <v>36.740308928638129</v>
+      </c>
+      <c r="N53" s="30">
+        <v>39.746004293028719</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1">
       <c r="A54" s="19" t="s">
         <v>4</v>
       </c>
@@ -2635,11 +2923,17 @@
       <c r="K54" s="16">
         <v>23.723202776332098</v>
       </c>
-      <c r="L54" s="36">
+      <c r="L54" s="16">
         <v>31.387723521883931</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1">
+      <c r="M54" s="30">
+        <v>43.682673503716764</v>
+      </c>
+      <c r="N54" s="30">
+        <v>38.594325605853889</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
       <c r="A55" s="19" t="s">
         <v>5</v>
       </c>
@@ -2673,11 +2967,17 @@
       <c r="K55" s="16">
         <v>1.3543062756194144</v>
       </c>
-      <c r="L55" s="36">
+      <c r="L55" s="16">
         <v>2.3754195561604825</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1">
+      <c r="M55" s="30">
+        <v>3.9247873703775031</v>
+      </c>
+      <c r="N55" s="30">
+        <v>2.0196382463391527</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1">
       <c r="A56" s="19" t="s">
         <v>6</v>
       </c>
@@ -2711,11 +3011,17 @@
       <c r="K56" s="16">
         <v>23.196340097483635</v>
       </c>
-      <c r="L56" s="36">
+      <c r="L56" s="16">
         <v>25.753753935477501</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1">
+      <c r="M56" s="30">
+        <v>33.89753748623999</v>
+      </c>
+      <c r="N56" s="30">
+        <v>37.397921518864621</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15" customHeight="1">
       <c r="A57" s="18" t="s">
         <v>13</v>
       </c>
@@ -2749,11 +3055,17 @@
       <c r="K57" s="15">
         <v>43.696507632776836</v>
       </c>
-      <c r="L57" s="35">
+      <c r="L57" s="15">
         <v>42.121742290134826</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1">
+      <c r="M57" s="29">
+        <v>44.587340739533701</v>
+      </c>
+      <c r="N57" s="29">
+        <v>44.677889726060279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15" customHeight="1">
       <c r="A58" s="18" t="s">
         <v>14</v>
       </c>
@@ -2787,11 +3099,17 @@
       <c r="K58" s="15">
         <v>121.55822838558454</v>
       </c>
-      <c r="L58" s="35">
+      <c r="L58" s="15">
         <v>132.5850695932582</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1">
+      <c r="M58" s="29">
+        <v>210.13226616378955</v>
+      </c>
+      <c r="N58" s="29">
+        <v>218.32578149959906</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15" customHeight="1">
       <c r="A59" s="19" t="s">
         <v>7</v>
       </c>
@@ -2825,11 +3143,17 @@
       <c r="K59" s="16">
         <v>21.930781918278903</v>
       </c>
-      <c r="L59" s="36">
+      <c r="L59" s="16">
         <v>18.492997444075073</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1">
+      <c r="M59" s="30">
+        <v>26.327747457687561</v>
+      </c>
+      <c r="N59" s="30">
+        <v>30.306166827671071</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15" customHeight="1">
       <c r="A60" s="19" t="s">
         <v>8</v>
       </c>
@@ -2863,11 +3187,17 @@
       <c r="K60" s="16">
         <v>17.980631826415941</v>
       </c>
-      <c r="L60" s="36">
+      <c r="L60" s="16">
         <v>13.991375897293409</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1">
+      <c r="M60" s="30">
+        <v>36.87948910182557</v>
+      </c>
+      <c r="N60" s="30">
+        <v>34.786976937607051</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15" customHeight="1">
       <c r="A61" s="19" t="s">
         <v>9</v>
       </c>
@@ -2901,11 +3231,17 @@
       <c r="K61" s="16">
         <v>69.004056016582695</v>
       </c>
-      <c r="L61" s="36">
+      <c r="L61" s="16">
         <v>86.214264715389703</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="15" customHeight="1">
+      <c r="M61" s="30">
+        <v>131.50141075094129</v>
+      </c>
+      <c r="N61" s="30">
+        <v>133.33068658661168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15" customHeight="1">
       <c r="A62" s="19" t="s">
         <v>10</v>
       </c>
@@ -2939,11 +3275,17 @@
       <c r="K62" s="16">
         <v>12.642758624306985</v>
       </c>
-      <c r="L62" s="36">
+      <c r="L62" s="16">
         <v>13.886431536500089</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="15" customHeight="1">
+      <c r="M62" s="30">
+        <v>15.423618853335109</v>
+      </c>
+      <c r="N62" s="30">
+        <v>19.901951147709251</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15" customHeight="1">
       <c r="A63" s="18" t="s">
         <v>15</v>
       </c>
@@ -2977,11 +3319,17 @@
       <c r="K63" s="15">
         <v>324.9455582048198</v>
       </c>
-      <c r="L63" s="35">
+      <c r="L63" s="15">
         <v>362.81737846443394</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="15" customHeight="1">
+      <c r="M63" s="29">
+        <v>498.46578206324375</v>
+      </c>
+      <c r="N63" s="29">
+        <v>519.06708621014616</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15" customHeight="1">
       <c r="A64" s="21" t="s">
         <v>16</v>
       </c>
@@ -3015,125 +3363,139 @@
       <c r="K64" s="17">
         <v>368.6420658375967</v>
       </c>
-      <c r="L64" s="37">
+      <c r="L64" s="17">
         <v>404.93912075456876</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="15" customHeight="1">
-      <c r="A65" s="27" t="s">
+      <c r="M64" s="31">
+        <v>543.05312280277747</v>
+      </c>
+      <c r="N64" s="31">
+        <v>563.74497593620629</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15" customHeight="1">
+      <c r="A65" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27"/>
-    </row>
-    <row r="66" spans="1:12" ht="15" customHeight="1">
-      <c r="A66" s="28" t="s">
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+    </row>
+    <row r="66" spans="1:14" ht="15" customHeight="1">
+      <c r="A66" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="28"/>
-    </row>
-    <row r="67" spans="1:12" ht="15" customHeight="1">
-      <c r="A67" s="29" t="s">
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
+    </row>
+    <row r="67" spans="1:14" ht="15" customHeight="1">
+      <c r="A67" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
-    </row>
-    <row r="68" spans="1:12" ht="45" customHeight="1">
-      <c r="A68" s="24" t="s">
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
+    </row>
+    <row r="68" spans="1:14" ht="45" customHeight="1">
+      <c r="A68" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
-    </row>
-    <row r="69" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A69" s="25"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-    </row>
-    <row r="70" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A70" s="25"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-    </row>
-    <row r="71" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A71" s="25"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-    </row>
-    <row r="72" spans="1:12" ht="15">
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="32"/>
+    </row>
+    <row r="69" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
+    </row>
+    <row r="70" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A70" s="33"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+    </row>
+    <row r="71" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A71" s="33"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33"/>
+    </row>
+    <row r="72" spans="1:14" ht="15">
       <c r="A72" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A68:L68"/>
+    <mergeCell ref="A68:N68"/>
     <mergeCell ref="A69:J69"/>
     <mergeCell ref="A70:J70"/>
     <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="A65:L65"/>
-    <mergeCell ref="A66:L66"/>
-    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A23:N23"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A65:N65"/>
+    <mergeCell ref="A66:N66"/>
+    <mergeCell ref="A67:N67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
